--- a/Resource_Quality_Tests.xlsx
+++ b/Resource_Quality_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcosta3\Dropbox\kaleproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9CD8D3FE-55E8-47D9-8C53-9C408E7719D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD96F4C-D535-4CB4-8FAD-41E3AB7A1533}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{9CD8D3FE-55E8-47D9-8C53-9C408E7719D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27624A21-ED96-4439-98CF-137CFB526A3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="31">
   <si>
     <t>Treatment</t>
   </si>
@@ -83,7 +83,7 @@
     <t>Dead</t>
   </si>
   <si>
-    <t>Southland Diet</t>
+    <t>Control</t>
   </si>
   <si>
     <t>1st</t>
@@ -101,25 +101,10 @@
     <t>DM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>| P:C 50:10</t>
-    </r>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A = P:C 50:10</t>
   </si>
   <si>
     <t>3rd</t>
@@ -131,77 +116,16 @@
     <t>FTE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>| P:C 30:30</t>
-    </r>
+    <t>B</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>| P:C 30:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>B = P:C 30:30</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>| P:C 10:50</t>
-    </r>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C = P:C 10:50</t>
   </si>
   <si>
     <t>*crushed under lid</t>
@@ -214,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +157,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -897,8 +814,8 @@
   <dimension ref="A1:P211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -1669,7 +1586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1810,7 +1727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1904,7 +1821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1951,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +1915,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2045,7 +1962,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2139,7 +2056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2280,7 +2197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -2327,7 +2244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -2374,7 +2291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75">
+    <row r="32" spans="1:16" ht="15.75">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2420,8 +2337,11 @@
       <c r="O32" s="3">
         <v>45201</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75">
+      <c r="P32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -2468,7 +2388,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -2515,7 +2435,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -2562,7 +2482,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -2609,7 +2529,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2576,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2703,7 +2623,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -2750,7 +2670,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2717,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -2844,7 +2764,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +2811,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -2938,7 +2858,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -2985,7 +2905,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +2952,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +2999,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +3046,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -3173,7 +3093,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -3220,7 +3140,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3187,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -3314,7 +3234,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -3361,7 +3281,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -3408,7 +3328,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3455,7 +3375,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -3502,7 +3422,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -3549,7 +3469,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -3596,7 +3516,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -3643,7 +3563,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +3610,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -3737,7 +3657,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -3784,12 +3704,12 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3831,12 +3751,12 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" s="2">
         <v>2</v>
@@ -3878,12 +3798,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -3925,12 +3845,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75">
+    <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" s="2">
         <v>4</v>
@@ -3972,12 +3892,12 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75">
+    <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1">
         <v>5</v>
@@ -4019,12 +3939,12 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75">
+    <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" s="2">
         <v>6</v>
@@ -4066,12 +3986,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75">
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -4113,12 +4033,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75">
+    <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2">
         <v>8</v>
@@ -4160,12 +4080,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75">
+    <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
@@ -4207,12 +4127,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75">
+    <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" s="2">
         <v>10</v>
@@ -4254,12 +4174,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75">
+    <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
         <v>11</v>
@@ -4301,12 +4221,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75">
+    <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73" s="2">
         <v>12</v>
@@ -4348,12 +4268,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15.75">
+    <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1">
         <v>13</v>
@@ -4395,12 +4315,12 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75">
+    <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75" s="2">
         <v>14</v>
@@ -4442,12 +4362,12 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75">
+    <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1">
         <v>15</v>
@@ -4489,12 +4409,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75">
+    <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77" s="2">
         <v>16</v>
@@ -4536,15 +4456,15 @@
         <v>45188</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="15.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1">
         <v>17</v>
@@ -4586,12 +4506,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75">
+    <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C79" s="2">
         <v>18</v>
@@ -4627,18 +4547,18 @@
         <v>131</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O79" s="4">
         <v>45196</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15.75">
+    <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" s="1">
         <v>19</v>
@@ -4680,12 +4600,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75">
+    <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C81" s="2">
         <v>20</v>
@@ -4727,12 +4647,12 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75">
+    <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1">
         <v>21</v>
@@ -4774,12 +4694,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75">
+    <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" s="2">
         <v>22</v>
@@ -4821,12 +4741,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75">
+    <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>23</v>
@@ -4868,12 +4788,12 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75">
+    <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85" s="2">
         <v>24</v>
@@ -4915,12 +4835,12 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.75">
+    <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" s="1">
         <v>25</v>
@@ -4962,12 +4882,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75">
+    <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2">
         <v>26</v>
@@ -5009,12 +4929,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75">
+    <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88" s="1">
         <v>27</v>
@@ -5056,12 +4976,12 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75">
+    <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" s="2">
         <v>28</v>
@@ -5103,12 +5023,12 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75">
+    <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1">
         <v>29</v>
@@ -5150,12 +5070,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75">
+    <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C91" s="2">
         <v>30</v>
@@ -5197,9 +5117,9 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15.75">
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>16</v>
@@ -5243,10 +5163,13 @@
       <c r="O92" s="3">
         <v>45192</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="15.75">
+      <c r="P92" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>16</v>
@@ -5291,7 +5214,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75">
+    <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
         <v>26</v>
       </c>
@@ -5338,7 +5261,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75">
+    <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
@@ -5385,7 +5308,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75">
+    <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
         <v>26</v>
       </c>
@@ -5432,7 +5355,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>26</v>
       </c>
@@ -5479,7 +5402,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.75">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>26</v>
       </c>
@@ -5526,7 +5449,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15.75">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>26</v>
       </c>
@@ -5573,7 +5496,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15.75">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -5620,7 +5543,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.75">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>26</v>
       </c>
@@ -5667,7 +5590,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15.75">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>26</v>
       </c>
@@ -5714,7 +5637,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.75">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>26</v>
       </c>
@@ -5761,7 +5684,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15.75">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>26</v>
       </c>
@@ -5808,7 +5731,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15.75">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>26</v>
       </c>
@@ -5855,7 +5778,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15.75">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>26</v>
       </c>
@@ -5902,7 +5825,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.75">
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>26</v>
       </c>
@@ -5949,7 +5872,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15.75">
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>26</v>
       </c>
@@ -5996,7 +5919,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.75">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>26</v>
       </c>
@@ -6043,7 +5966,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.75">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>26</v>
       </c>
@@ -6090,7 +6013,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15.75">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>26</v>
       </c>
@@ -6137,7 +6060,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15.75">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>26</v>
       </c>
@@ -6184,7 +6107,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15.75">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
         <v>26</v>
       </c>
@@ -6231,7 +6154,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.75">
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
         <v>26</v>
       </c>
@@ -6278,7 +6201,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15.75">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
@@ -6325,7 +6248,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15.75">
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
         <v>26</v>
       </c>
@@ -6372,7 +6295,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15.75">
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
         <v>26</v>
       </c>
@@ -6419,7 +6342,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15.75">
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
         <v>26</v>
       </c>
@@ -6466,7 +6389,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75">
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
         <v>26</v>
       </c>
@@ -6513,7 +6436,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15.75">
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
         <v>26</v>
       </c>
@@ -6560,7 +6483,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75">
+    <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
         <v>26</v>
       </c>
@@ -6607,12 +6530,12 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15.75">
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -6654,12 +6577,12 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15.75">
+    <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C123" s="2">
         <v>2</v>
@@ -6701,12 +6624,12 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.75">
+    <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
@@ -6748,12 +6671,12 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.75">
+    <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C125" s="2">
         <v>4</v>
@@ -6795,12 +6718,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15.75">
+    <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C126" s="1">
         <v>5</v>
@@ -6842,12 +6765,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15.75">
+    <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C127" s="2">
         <v>6</v>
@@ -6889,12 +6812,12 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15.75">
+    <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C128" s="1">
         <v>7</v>
@@ -6936,12 +6859,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75">
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C129" s="2">
         <v>8</v>
@@ -6983,12 +6906,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75">
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C130" s="1">
         <v>9</v>
@@ -7030,12 +6953,12 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75">
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C131" s="2">
         <v>10</v>
@@ -7077,12 +7000,12 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75">
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C132" s="1">
         <v>11</v>
@@ -7124,12 +7047,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75">
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C133" s="2">
         <v>12</v>
@@ -7171,12 +7094,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75">
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C134" s="1">
         <v>13</v>
@@ -7218,12 +7141,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75">
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C135" s="2">
         <v>14</v>
@@ -7265,12 +7188,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75">
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C136" s="1">
         <v>15</v>
@@ -7312,12 +7235,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75">
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C137" s="2">
         <v>16</v>
@@ -7359,12 +7282,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75">
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C138" s="1">
         <v>17</v>
@@ -7406,12 +7329,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75">
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C139" s="2">
         <v>18</v>
@@ -7453,12 +7376,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75">
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C140" s="1">
         <v>19</v>
@@ -7500,12 +7423,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75">
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C141" s="2">
         <v>20</v>
@@ -7547,12 +7470,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75">
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C142" s="1">
         <v>21</v>
@@ -7594,12 +7517,12 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75">
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C143" s="2">
         <v>22</v>
@@ -7641,12 +7564,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75">
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C144" s="1">
         <v>23</v>
@@ -7688,12 +7611,12 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15.75">
+    <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C145" s="2">
         <v>24</v>
@@ -7735,12 +7658,12 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15.75">
+    <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C146" s="1">
         <v>25</v>
@@ -7782,12 +7705,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15.75">
+    <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C147" s="2">
         <v>26</v>
@@ -7829,12 +7752,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15.75">
+    <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148" s="1">
         <v>27</v>
@@ -7876,12 +7799,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15.75">
+    <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C149" s="2">
         <v>28</v>
@@ -7923,12 +7846,12 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15.75">
+    <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C150" s="1">
         <v>29</v>
@@ -7970,12 +7893,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15.75">
+    <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C151" s="2">
         <v>30</v>
@@ -8019,7 +7942,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75">
       <c r="A152" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>16</v>
@@ -8063,10 +7986,13 @@
       <c r="O152" s="3">
         <v>45180</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" ht="15.75">
+      <c r="P152" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>16</v>
@@ -8111,12 +8037,12 @@
         <v>45173</v>
       </c>
       <c r="P153" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="15.75">
-      <c r="A154" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>16</v>
@@ -8161,9 +8087,9 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75">
+    <row r="155" spans="1:16">
       <c r="A155" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>16</v>
@@ -8208,9 +8134,9 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15.75">
+    <row r="156" spans="1:16">
       <c r="A156" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>16</v>
@@ -8255,9 +8181,9 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15.75">
+    <row r="157" spans="1:16">
       <c r="A157" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>16</v>
@@ -8302,9 +8228,9 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15.75">
+    <row r="158" spans="1:16">
       <c r="A158" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>16</v>
@@ -8349,9 +8275,9 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15.75">
+    <row r="159" spans="1:16">
       <c r="A159" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>16</v>
@@ -8396,9 +8322,9 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15.75">
+    <row r="160" spans="1:16">
       <c r="A160" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>16</v>
@@ -8443,9 +8369,9 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.75">
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>16</v>
@@ -8490,9 +8416,9 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.75">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>16</v>
@@ -8537,9 +8463,9 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15.75">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>16</v>
@@ -8584,9 +8510,9 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15.75">
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>16</v>
@@ -8631,9 +8557,9 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.75">
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>16</v>
@@ -8678,9 +8604,9 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.75">
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>16</v>
@@ -8725,9 +8651,9 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.75">
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>16</v>
@@ -8772,9 +8698,9 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15.75">
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>16</v>
@@ -8819,9 +8745,9 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15.75">
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>16</v>
@@ -8866,9 +8792,9 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15.75">
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>16</v>
@@ -8913,9 +8839,9 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15.75">
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>16</v>
@@ -8960,9 +8886,9 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15.75">
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>16</v>
@@ -9007,9 +8933,9 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.75">
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>16</v>
@@ -9054,9 +8980,9 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15.75">
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>16</v>
@@ -9101,9 +9027,9 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.75">
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>16</v>
@@ -9148,9 +9074,9 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15.75">
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>16</v>
@@ -9195,9 +9121,9 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15.75">
+    <row r="177" spans="1:15">
       <c r="A177" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>16</v>
@@ -9242,9 +9168,9 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15.75">
+    <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>16</v>
@@ -9289,9 +9215,9 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15.75">
+    <row r="179" spans="1:15">
       <c r="A179" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>16</v>
@@ -9336,9 +9262,9 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15.75">
+    <row r="180" spans="1:15">
       <c r="A180" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>16</v>
@@ -9383,9 +9309,9 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15.75">
+    <row r="181" spans="1:15">
       <c r="A181" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>16</v>
@@ -9430,12 +9356,12 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15.75">
+    <row r="182" spans="1:15">
       <c r="A182" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
@@ -9477,12 +9403,12 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15.75">
+    <row r="183" spans="1:15">
       <c r="A183" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C183" s="2">
         <v>2</v>
@@ -9524,12 +9450,12 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15.75">
+    <row r="184" spans="1:15">
       <c r="A184" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C184" s="1">
         <v>3</v>
@@ -9571,12 +9497,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15.75">
+    <row r="185" spans="1:15">
       <c r="A185" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C185" s="2">
         <v>4</v>
@@ -9618,12 +9544,12 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15.75">
+    <row r="186" spans="1:15">
       <c r="A186" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C186" s="1">
         <v>5</v>
@@ -9665,12 +9591,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15.75">
+    <row r="187" spans="1:15">
       <c r="A187" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C187" s="2">
         <v>6</v>
@@ -9712,12 +9638,12 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.75">
+    <row r="188" spans="1:15">
       <c r="A188" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C188" s="1">
         <v>7</v>
@@ -9759,12 +9685,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15.75">
+    <row r="189" spans="1:15">
       <c r="A189" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C189" s="2">
         <v>8</v>
@@ -9806,12 +9732,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15.75">
+    <row r="190" spans="1:15">
       <c r="A190" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C190" s="1">
         <v>9</v>
@@ -9853,12 +9779,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15.75">
+    <row r="191" spans="1:15">
       <c r="A191" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C191" s="2">
         <v>10</v>
@@ -9900,12 +9826,12 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15.75">
+    <row r="192" spans="1:15">
       <c r="A192" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C192" s="1">
         <v>11</v>
@@ -9947,12 +9873,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15.75">
+    <row r="193" spans="1:15">
       <c r="A193" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C193" s="2">
         <v>12</v>
@@ -9994,12 +9920,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15.75">
+    <row r="194" spans="1:15">
       <c r="A194" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C194" s="1">
         <v>13</v>
@@ -10041,12 +9967,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15.75">
+    <row r="195" spans="1:15">
       <c r="A195" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C195" s="2">
         <v>14</v>
@@ -10088,12 +10014,12 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15.75">
+    <row r="196" spans="1:15">
       <c r="A196" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C196" s="1">
         <v>15</v>
@@ -10135,12 +10061,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="15.75">
+    <row r="197" spans="1:15">
       <c r="A197" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C197" s="2">
         <v>16</v>
@@ -10182,12 +10108,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15.75">
+    <row r="198" spans="1:15">
       <c r="A198" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C198" s="1">
         <v>17</v>
@@ -10229,12 +10155,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15.75">
+    <row r="199" spans="1:15">
       <c r="A199" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C199" s="2">
         <v>18</v>
@@ -10276,12 +10202,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15.75">
+    <row r="200" spans="1:15">
       <c r="A200" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C200" s="1">
         <v>19</v>
@@ -10323,12 +10249,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15.75">
+    <row r="201" spans="1:15">
       <c r="A201" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C201" s="2">
         <v>20</v>
@@ -10370,12 +10296,12 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15.75">
+    <row r="202" spans="1:15">
       <c r="A202" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C202" s="1">
         <v>21</v>
@@ -10417,12 +10343,12 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="15.75">
+    <row r="203" spans="1:15">
       <c r="A203" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C203" s="2">
         <v>22</v>
@@ -10464,12 +10390,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15.75">
+    <row r="204" spans="1:15">
       <c r="A204" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C204" s="1">
         <v>23</v>
@@ -10511,12 +10437,12 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15.75">
+    <row r="205" spans="1:15">
       <c r="A205" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C205" s="2">
         <v>24</v>
@@ -10558,12 +10484,12 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15.75">
+    <row r="206" spans="1:15">
       <c r="A206" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C206" s="1">
         <v>25</v>
@@ -10605,12 +10531,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15.75">
+    <row r="207" spans="1:15">
       <c r="A207" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C207" s="2">
         <v>26</v>
@@ -10652,12 +10578,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15.75">
+    <row r="208" spans="1:15">
       <c r="A208" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C208" s="1">
         <v>27</v>
@@ -10699,12 +10625,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="15.75">
+    <row r="209" spans="1:15">
       <c r="A209" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C209" s="2">
         <v>28</v>
@@ -10746,12 +10672,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15.75">
+    <row r="210" spans="1:15">
       <c r="A210" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C210" s="1">
         <v>29</v>
@@ -10793,12 +10719,12 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15.75">
+    <row r="211" spans="1:15">
       <c r="A211" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C211" s="2">
         <v>30</v>
